--- a/biology/Zoologie/Chlamydoselachus_lawleyi/Chlamydoselachus_lawleyi.xlsx
+++ b/biology/Zoologie/Chlamydoselachus_lawleyi/Chlamydoselachus_lawleyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlamydoselachus lawleyi est une espèce de requins fossiles datant du Pliocène supérieur[1], ancêtre de l'espèce actuelle Chlamydoselachus anguineus, le requin-lézard.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlamydoselachus lawleyi est une espèce de requins fossiles datant du Pliocène supérieur, ancêtre de l'espèce actuelle Chlamydoselachus anguineus, le requin-lézard.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un nombre considérable de dents de cet animal, membre de la famille des Chlamydoselachidae, a été découvert en Toscane (Italie) près de la ville de Sienne.
 </t>
@@ -542,9 +556,11 @@
           <t>Âge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur âge est principalement Pliocène supérieur (Plaisancien) mais semble se prolonger un peu durant l'extrême base du Pléistocène (Gélasien)[1], entre environ −3,1 et −2,5 Ma (millions d'années).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur âge est principalement Pliocène supérieur (Plaisancien) mais semble se prolonger un peu durant l'extrême base du Pléistocène (Gélasien), entre environ −3,1 et −2,5 Ma (millions d'années).
 </t>
         </is>
       </c>
